--- a/XAutomateMVC/Rules/core_6.xlsx
+++ b/XAutomateMVC/Rules/core_6.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <x:si>
+    <x:t>R Id</x:t>
+  </x:si>
   <x:si>
     <x:t>Test Approach</x:t>
   </x:si>
@@ -91,7 +94,10 @@
     <x:t>Description</x:t>
   </x:si>
   <x:si>
-    <x:t>Delta_processing</x:t>
+    <x:t>66</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delta_processing1</x:t>
   </x:si>
   <x:si>
     <x:t>core_6</x:t>
@@ -179,34 +185,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="core_6" displayName="core_6" ref="A1:Y2" totalsRowShown="0">
-  <x:autoFilter ref="A1:Y2"/>
-  <x:tableColumns count="25">
-    <x:tableColumn id="1" name="Test Approach"/>
-    <x:tableColumn id="2" name="Rule Name"/>
-    <x:tableColumn id="3" name="Parameter"/>
-    <x:tableColumn id="4" name="Query"/>
-    <x:tableColumn id="5" name="Parameter Name 0"/>
-    <x:tableColumn id="6" name="Parameter Name 1"/>
-    <x:tableColumn id="7" name="Parameter Name 2"/>
-    <x:tableColumn id="8" name="Parameter Name 3"/>
-    <x:tableColumn id="9" name="Parameter Name 4"/>
-    <x:tableColumn id="10" name="Parameter Name 5"/>
-    <x:tableColumn id="11" name="Parameter Name 6"/>
-    <x:tableColumn id="12" name="Parameter Name 7"/>
-    <x:tableColumn id="13" name="Parameter Name 8"/>
-    <x:tableColumn id="14" name="Parameter Name 9"/>
-    <x:tableColumn id="15" name="Parameter Name 10"/>
-    <x:tableColumn id="16" name="Parameter Name 11"/>
-    <x:tableColumn id="17" name="Parameter Name 12"/>
-    <x:tableColumn id="18" name="Parameter Name 13"/>
-    <x:tableColumn id="19" name="Parameter Name 14"/>
-    <x:tableColumn id="20" name="Parameter Name 15"/>
-    <x:tableColumn id="21" name="Parameter Name 16"/>
-    <x:tableColumn id="22" name="Parameter Name 17"/>
-    <x:tableColumn id="23" name="Parameter Name 18"/>
-    <x:tableColumn id="24" name="Parameter Name 19"/>
-    <x:tableColumn id="25" name="Description"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="core_6" displayName="core_6" ref="A1:Z2" totalsRowShown="0">
+  <x:autoFilter ref="A1:Z2"/>
+  <x:tableColumns count="26">
+    <x:tableColumn id="1" name="R Id"/>
+    <x:tableColumn id="2" name="Test Approach"/>
+    <x:tableColumn id="3" name="Rule Name"/>
+    <x:tableColumn id="4" name="Parameter"/>
+    <x:tableColumn id="5" name="Query"/>
+    <x:tableColumn id="6" name="Parameter Name 0"/>
+    <x:tableColumn id="7" name="Parameter Name 1"/>
+    <x:tableColumn id="8" name="Parameter Name 2"/>
+    <x:tableColumn id="9" name="Parameter Name 3"/>
+    <x:tableColumn id="10" name="Parameter Name 4"/>
+    <x:tableColumn id="11" name="Parameter Name 5"/>
+    <x:tableColumn id="12" name="Parameter Name 6"/>
+    <x:tableColumn id="13" name="Parameter Name 7"/>
+    <x:tableColumn id="14" name="Parameter Name 8"/>
+    <x:tableColumn id="15" name="Parameter Name 9"/>
+    <x:tableColumn id="16" name="Parameter Name 10"/>
+    <x:tableColumn id="17" name="Parameter Name 11"/>
+    <x:tableColumn id="18" name="Parameter Name 12"/>
+    <x:tableColumn id="19" name="Parameter Name 13"/>
+    <x:tableColumn id="20" name="Parameter Name 14"/>
+    <x:tableColumn id="21" name="Parameter Name 15"/>
+    <x:tableColumn id="22" name="Parameter Name 16"/>
+    <x:tableColumn id="23" name="Parameter Name 17"/>
+    <x:tableColumn id="24" name="Parameter Name 18"/>
+    <x:tableColumn id="25" name="Parameter Name 19"/>
+    <x:tableColumn id="26" name="Description"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -500,13 +507,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:Y2"/>
+  <x:dimension ref="A1:Z2"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:25">
+    <x:row r="1" spans="1:26">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -582,82 +589,88 @@
       <x:c r="Y1" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
+      <x:c r="Z1" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:25">
+    <x:row r="2" spans="1:26">
       <x:c r="A2" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="K2" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="L2" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="M2" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="N2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="J2" s="0" t="s">
+      <x:c r="O2" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="P2" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="Q2" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="R2" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="S2" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="K2" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="L2" s="0" t="s">
+      <x:c r="T2" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="M2" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="N2" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="O2" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="P2" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="Q2" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="R2" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="S2" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="T2" s="0" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="U2" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="V2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="W2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="X2" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="Y2" s="0" t="s">
         <x:v>33</x:v>
+      </x:c>
+      <x:c r="Z2" s="0" t="s">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
